--- a/dsmb_ccru_tables/category ByEvent EXAMPLE_STUDY Cohort D 30OCT2020.xlsx
+++ b/dsmb_ccru_tables/category ByEvent EXAMPLE_STUDY Cohort D 30OCT2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -20,43 +20,67 @@
     <t xml:space="preserve"># of events that have experienced the AE in this category</t>
   </si>
   <si>
-    <t xml:space="preserve">% of events in relation to the total events (N=39)</t>
+    <t xml:space="preserve">% of events in relation to the total events (N=68)</t>
   </si>
   <si>
     <t xml:space="preserve"># of events that were grade 3 to 5</t>
   </si>
   <si>
-    <t xml:space="preserve">% of events that this comprises of the total accrual (N=39)</t>
+    <t xml:space="preserve">% of events that this comprises of the total accrual (N=68)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOOD AND LYMPHATIC SYSTEM DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.35</t>
   </si>
   <si>
     <t xml:space="preserve">CARDIAC DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56</t>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">GASTROINTESTINAL DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve">28.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">10.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.47</t>
   </si>
   <si>
     <t xml:space="preserve">GENERAL DISORDERS AND ADMINISTRATION SITE CONDITIONS</t>
   </si>
   <si>
-    <t xml:space="preserve">30.77</t>
+    <t xml:space="preserve"> 4.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEPATOBILIARY DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMMUNE SYSTEM DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFECTIONS AND INFESTATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVESTIGATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.94</t>
   </si>
   <si>
     <t xml:space="preserve">METABOLISM AND NUTRITION DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve">10.26</t>
+    <t xml:space="preserve">MUSCULOSKELETAL AND CONNECTIVE TISSUE DISORDERS</t>
   </si>
   <si>
     <t xml:space="preserve">NERVOUS SYSTEM DISORDERS</t>
@@ -65,13 +89,10 @@
     <t xml:space="preserve">PSYCHIATRIC DISORDERS</t>
   </si>
   <si>
+    <t xml:space="preserve">RENAL AND URINARY DISORDERS</t>
+  </si>
+  <si>
     <t xml:space="preserve">RESPIRATORY, THORACIC AND MEDIASTINAL DISORDERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKIN AND SUBCUTANEOUS TISSUE DISORDERS</t>
   </si>
   <si>
     <t xml:space="preserve">VASCULAR DISORDERS</t>
@@ -610,22 +631,22 @@
   <sheetData>
     <row r="1" ht="50" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="82" customHeight="1">
@@ -650,13 +671,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>7</v>
@@ -667,33 +688,33 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="D12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -701,16 +722,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -718,50 +739,50 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D16" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -769,33 +790,135 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="n">
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="8" t="n">
+      <c r="E21" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="8" t="n">
+      <c r="C24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>10</v>
+      <c r="E24" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
